--- a/Projects/CCBZA/Data/Template_GROCERY.xlsx
+++ b/Projects/CCBZA/Data/Template_GROCERY.xlsx
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -520,9 +521,6 @@
     <t xml:space="preserve">Stills Category Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">KO PRODUCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check for each category - if there is not KO PRODUCT, then there should be 2 facing of KO PRODUCT in this category</t>
   </si>
   <si>
@@ -551,6 +549,9 @@
   </si>
   <si>
     <t xml:space="preserve">DOC Stills Availability of Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLETISER,JUST JUICE</t>
   </si>
 </sst>
 </file>
@@ -857,20 +858,20 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.1162790697674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.2697674418605"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="1020" min="8" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.7953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4093023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.6232558139535"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="1020" min="8" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,15 +1161,15 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,33 +1221,33 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.3116279069767"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="83.0651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.0232558139535"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="92.5441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7720930232558"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="85.6511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.6232558139535"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="95.2511627906977"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,22 +1666,22 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.8418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.2372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.9627906976744"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,29 +2005,29 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.1302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.3302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.2093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.3023255813953"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2232558139535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.0558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.2139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.1953488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,22 +2387,22 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,33 +2483,33 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.5441860465116"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="103.986046511628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="88.1116279069768"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.1627906976744"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0604651162791"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="84.4186046511628"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="77.7348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="90.8186046511628"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7953488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="86.8837209302326"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,13 +2926,13 @@
         <v>53</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>53</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="L11" s="13" t="n">
         <v>2</v>
@@ -2946,7 +2947,7 @@
         <v>11</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,7 +2955,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>160</v>
@@ -2963,22 +2964,22 @@
         <v>161</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>166</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>114</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L12" s="13" t="n">
         <v>2</v>
@@ -2993,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +3002,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>160</v>
@@ -3010,22 +3011,22 @@
         <v>161</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>53</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="L13" s="13" t="n">
         <v>2</v>
@@ -3040,7 +3041,7 @@
         <v>11</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,7 +3049,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>160</v>
@@ -3066,13 +3067,13 @@
         <v>53</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>53</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="L14" s="13" t="n">
         <v>2</v>
@@ -3087,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>160</v>
@@ -3113,13 +3114,13 @@
         <v>53</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="L15" s="13" t="n">
         <v>2</v>
@@ -3134,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,7 +3143,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>160</v>
@@ -3160,13 +3161,13 @@
         <v>53</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>114</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="L16" s="13" t="n">
         <v>2</v>
@@ -3181,7 +3182,7 @@
         <v>11</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA/Data/Template_GROCERY.xlsx
+++ b/Projects/CCBZA/Data/Template_GROCERY.xlsx
@@ -18,10 +18,11 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="171">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -215,10 +216,10 @@
     <t xml:space="preserve">Calculate only of the product is available </t>
   </si>
   <si>
-    <t xml:space="preserve">Price Compliance of 440ml CAN/PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000140906,5449000106476,5449000234605,5449000195715,5449000664686,5449000664754,5449000234643,5449000664808</t>
+    <t xml:space="preserve">Price Compliance of 400ml CAN/440ml PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000234643, 5449000664785, 5449000664723, 5449000664754, 5449000664747, 5449000664884, 5449000664846, , 5449000664808, 5449000664792, 5449000664822, 5449000664839, 5449000664686</t>
   </si>
   <si>
     <t xml:space="preserve">Price Compliance of SSD FC 1.5L</t>
@@ -239,10 +240,10 @@
     <t xml:space="preserve">90375149</t>
   </si>
   <si>
-    <t xml:space="preserve">Price Compliance of 440CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000157751,5449000230188</t>
+    <t xml:space="preserve">Price Compliance of 400CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256928, 5449000257451</t>
   </si>
   <si>
     <t xml:space="preserve">Price Compliance of 440PET</t>
@@ -437,49 +438,46 @@
     <t xml:space="preserve">Min sku target</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC Availabililty of CC 300PET/440CAN/PET</t>
+    <t xml:space="preserve">SSD IC Availabililty of CC 300PET/400CAN/PET</t>
   </si>
   <si>
     <t xml:space="preserve">Availability SKU facing Or</t>
   </si>
   <si>
-    <t xml:space="preserve">87126037,5449000140906,5449000664686</t>
+    <t xml:space="preserve">90338052, 5449000256836, 5449000664686</t>
   </si>
   <si>
     <t xml:space="preserve">All recognized KO Products should have at least 2 facings in ALL of the scene types</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC Availabililty of SP 300PET/440CAN/PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54492691,5449000234605,5449000234643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Availabililty of FA 300PET/440CAN/PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822921,5449000106476,5449000664754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC Availabililty of ST 300PET/440CAN/PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822327,5449000195715,5449000664808</t>
+    <t xml:space="preserve">SSD IC Availabililty of SP 300PET/400CAN/PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234582, 5449000257239, 5449000234643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availabililty of FA 300PET/400CAN/PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90377235, 5449000257130, 5449000234643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC Availabililty of ST 300PET/400CAN/PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40822327, 5449000257413, 5449000664808</t>
   </si>
   <si>
     <t xml:space="preserve">SSD FC Availabililty of CC,SP,FA,ST 1.5/2L</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability SKU facing And</t>
-  </si>
-  <si>
     <t xml:space="preserve">5449000000439,5449000234629,5449000052926,5449000180919,5449000009067,5449000010049,5449000234636,6001134707302</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Diets: 300ml PET (CZ) OR 440 ml Can OR 440ml PET (CZ,SZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149,5449000157751,5449000230188,5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+    <t xml:space="preserve">SSD Diets: 300ml PET (CZ) OR 400 ml Can OR 440ml PET (CZ,SZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149, 5449000256928, 5449000664693, 5449000664785</t>
   </si>
   <si>
     <t xml:space="preserve">Stills Brands/Packs 330/440ml (BA, VA, JJ, FZ, PP, MH, GL)</t>
@@ -494,22 +492,19 @@
     <t xml:space="preserve">BONAQUA, VALPRE, JUST JUICE, FUZE, POWERADE, PLAY, MONSTER, GLACEAU</t>
   </si>
   <si>
-    <t xml:space="preserve">Can OR be valid only for size?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stills Brands/Packs 0.5/1.25/1.5L (BA, VA, JJ, FZ, PP, MH, GL)</t>
   </si>
   <si>
     <t xml:space="preserve">500, 1250, 1500</t>
   </si>
   <si>
-    <t xml:space="preserve">330ml Can Multipack, 1.5L 4 pack</t>
+    <t xml:space="preserve">300ml Can Multipack, 1.5L 4 pack</t>
   </si>
   <si>
     <t xml:space="preserve">Ambient Shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">5000112635553,5000112536171,5000112635362,5000112635560,5000112561838,5000112635393,5000112635379,5000112635416,5000112635430,5000112635386,5000112635409,5000112635423,5449000000439</t>
+    <t xml:space="preserve">5449000000439, 5449000256812, 5449000256904, 5449000256980, 5449000256874, 5449000257079, 5449000257253, 5449000257369, 5449000257017, 5449000257185, 5449000257109, 5449000257055, 5449000257468, 5449000257734, 5449000257543, 5449000257635, 5449000257581, 5449000257512, 5449000257604, 5449000257697, 5449000257666</t>
   </si>
   <si>
     <t xml:space="preserve">DOC Stills Availability of Energy</t>
@@ -600,7 +595,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,8 +622,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -673,7 +674,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,11 +695,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,7 +735,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,19 +755,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -766,8 +787,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -817,7 +842,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -827,14 +852,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -858,20 +883,20 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.7953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.6232558139535"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1020" min="8" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.8279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="1020" min="8" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,7 +939,7 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -933,7 +958,7 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -952,7 +977,7 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -973,7 +998,7 @@
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -994,7 +1019,7 @@
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1015,7 +1040,7 @@
       <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1036,7 +1061,7 @@
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1057,7 +1082,7 @@
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1078,7 +1103,7 @@
       <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -1097,9 +1122,9 @@
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1116,28 +1141,28 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+    <row r="13" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4" t="n">
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1161,43 +1186,46 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1225,81 +1253,79 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.7720930232558"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="85.6511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.6232558139535"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="95.2511627906977"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.3627906976744"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="114.693023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="63.5023255813954"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1313,336 +1339,346 @@
       <c r="C2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="13"/>
+      <c r="L2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="16"/>
       <c r="O2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="0" t="n">
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="13"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="16"/>
       <c r="O3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="16"/>
       <c r="O4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="0" t="n">
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="0" t="n">
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="0" t="n">
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="0" t="n">
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="16"/>
       <c r="O9" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="0" t="n">
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="13"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="16"/>
       <c r="O10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="0" t="n">
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="13"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="16"/>
       <c r="O11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1666,325 +1702,342 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3162790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.9627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.6093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="15" t="n">
+      <c r="F2" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+    <row r="3" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="G3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="G4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="G5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="G6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="G7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="G8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="G9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="G10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="G11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="13"/>
+      <c r="G12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2006,128 +2059,130 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.2232558139535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.0558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.1953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.3302325581395"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.8372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8418604651163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="13" t="n">
+      <c r="H2" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="N2" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
@@ -2137,16 +2192,16 @@
       <c r="D3" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="15" t="n">
         <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -2155,19 +2210,19 @@
       <c r="J3" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="11" t="n">
         <v>65</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="0" t="s">
@@ -2177,7 +2232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
@@ -2187,25 +2242,25 @@
       <c r="C4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="0" t="s">
@@ -2215,7 +2270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -2225,25 +2280,25 @@
       <c r="C5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R5" s="0" t="s">
@@ -2253,7 +2308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
@@ -2263,25 +2318,25 @@
       <c r="C6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="15" t="n">
         <v>65</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="0" t="s">
@@ -2291,7 +2346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -2301,25 +2356,25 @@
       <c r="C7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R7" s="0" t="s">
@@ -2329,7 +2384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
@@ -2339,25 +2394,25 @@
       <c r="C8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R8" s="0" t="s">
@@ -2387,76 +2442,74 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>131</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="15" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="16"/>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
@@ -2483,706 +2536,712 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.5162790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="77.7348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="90.8186046511628"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.1488372093023"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7953488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="86.8837209302326"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.3627906976744"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.0558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="181.148837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.9302325581395"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.7488372093023"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="103.618604651163"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="13" t="n">
+      <c r="K2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="N2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="28" t="s">
         <v>139</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="N3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="28" t="s">
         <v>141</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="9" t="s">
+      <c r="N4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="28" t="s">
         <v>143</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="9" t="s">
+      <c r="N5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="13" t="n">
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="9" t="s">
+      <c r="N6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>148</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="N7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="9" t="s">
+      <c r="N8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="G9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="13" t="n">
+      <c r="E10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="N10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="9" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="C11" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L10" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="24" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="24" t="s">
         <v>53</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="9" t="s">
+      <c r="N11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="F12" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="24" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="16" t="s">
         <v>114</v>
       </c>
       <c r="J12" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="L12" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="24" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="24" t="s">
         <v>53</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="N13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="24" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="24" t="s">
         <v>53</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="N14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="24" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="24" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="N15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="24" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="16" t="s">
         <v>114</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="13" t="n">
+        <v>170</v>
+      </c>
+      <c r="L16" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>162</v>
+      <c r="N16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA/Data/Template_GROCERY.xlsx
+++ b/Projects/CCBZA/Data/Template_GROCERY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="172">
   <si>
     <t xml:space="preserve">Set Name</t>
   </si>
@@ -75,301 +76,304 @@
     <t xml:space="preserve">MERCHANDISING</t>
   </si>
   <si>
+    <t xml:space="preserve">Merchandise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS, Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY PACK: Availability, Pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price, Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Diets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVAILABILITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Multipack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POI &amp; ACTIVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONUS POINTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability and Pricing of ALL Key Packs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC Stills Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atomic KPI Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Display Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price communication for all skus merchandised at all points of engagement in outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambient Shelf, Stills Category Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO PRODUCTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one price should be present for every unique SKU in every Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of SSD IC 300ml PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87126037,54492691,40822921,40822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only of the product is available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of 400ml CAN/440ml PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000234643, 5449000664785, 5449000664723, 5449000664754, 5449000664747, 5449000664884, 5449000664846, , 5449000664808, 5449000664792, 5449000664822, 5449000664839, 5449000664686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of SSD FC 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000000439,5449000234629,5449000052926,5449000180919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of SSD FC 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000009067,5449000010049,5449000234636,6001134707302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of 300PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90375149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of 400CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000256928, 5449000257451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of 440PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of 1.5L Diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000180896,5449000133335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Compliance of 2L Diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000037978,5449000061768,5449000202048,5449000172167,5449000202147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey Q CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillpoints CCBSA 1:3 in corporate stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio to 1:3 to pass, etc 21 till points and 7 coolers pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min of 2 (SS 99 coolers) per snake aisle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x IC cooler in Deli with Min 1 x OTG Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerplay Countertop Cooler in Kiosk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 3 Cooler Bank Corner Decals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X HMR Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2L Sparletta Bulk Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSU/Braai Stand in Butchery, 1.5L 4 Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSU in Bakery, 1.5L Core Flavours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gondola End/ Additional Display, 2L Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stills FC Display 4 Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Numerator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Denominator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 1 - Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Numerator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Denominator Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition 2 - Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBSA to occupy &gt;75% of Beverage Cooler Bank outlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merchandising</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS, Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY PACK: Availability, Pricing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price, Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Diets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVAILABILITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Multipack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POI &amp; ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONUS POINTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability and Pricing of ALL Key Packs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC Stills Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atomic KPI Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Display Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price communication for all skus merchandised at all points of engagement in outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambient Shelf, Stills Category Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO PRODUCTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one price should be present for every unique SKU in every Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of SSD IC 300ml PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87126037,54492691,40822921,40822327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only of the product is available </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of 400ml CAN/440ml PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000256836, 5449000257239, 5449000257130, 5449000257413, 5449000234643, 5449000664785, 5449000664723, 5449000664754, 5449000664747, 5449000664884, 5449000664846, , 5449000664808, 5449000664792, 5449000664822, 5449000664839, 5449000664686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of SSD FC 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000439,5449000234629,5449000052926,5449000180919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of SSD FC 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000009067,5449000010049,5449000234636,6001134707302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of 300PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90375149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of 400CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000256928, 5449000257451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of 440PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000664716,5449000664709,5449000664693,5449000664761,5449000664785,5449000664792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of 1.5L Diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000180896,5449000133335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Compliance of 2L Diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000037978,5449000061768,5449000202048,5449000172167,5449000202147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey Q CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tillpoints CCBSA 1:3 in corporate stores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio to 1:3 to pass, etc 21 till points and 7 coolers pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min of 2 (SS 99 coolers) per snake aisle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x IC cooler in Deli with Min 1 x OTG Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powerplay Countertop Cooler in Kiosk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 3 Cooler Bank Corner Decals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1X HMR Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2L Sparletta Bulk Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSU/Braai Stand in Butchery, 1.5L 4 Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSU in Bakery, 1.5L Core Flavours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gondola End/ Additional Display, 2L Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stills FC Display 4 Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Numerator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Denominator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1 - Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Numerator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Denominator Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2 - Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCBSA to occupy &gt;75% of Beverage Cooler Bank outlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">( FA, ST, TW 25%), (Diet/Lights/Zero/Sprite/Sparletta 65%)</t>
@@ -674,7 +678,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -696,18 +700,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -736,10 +728,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,21 +870,20 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.8279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="1020" min="8" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,11 +928,11 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1145,21 +1132,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="5" t="n">
@@ -1191,41 +1178,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1253,84 +1240,83 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.3627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="114.693023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.5767441860465"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="118.260465116279"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52093023255814"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="63.5023255813954"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.24651162790698"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="65.3441860465116"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1339,346 +1325,346 @@
       <c r="C2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="n">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="16"/>
+      <c r="L2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="13"/>
       <c r="O2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15" t="n">
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="16"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="13"/>
       <c r="O3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="16"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="13"/>
       <c r="O4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15" t="n">
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15" t="n">
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15" t="n">
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15" t="n">
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="16"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="13"/>
       <c r="O9" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15" t="n">
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="16"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="13"/>
       <c r="O10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="15" t="n">
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="16"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="13"/>
       <c r="O11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1707,337 +1693,318 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.90697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="48.6093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.0883720930233"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="23" t="s">
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-    </row>
-    <row r="5" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-    </row>
-    <row r="6" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-    </row>
-    <row r="7" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="G6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="G7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-    </row>
-    <row r="9" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="13" t="n">
         <v>31</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="G10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="G11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="13" t="n">
         <v>33</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
+      <c r="G12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2059,208 +2026,207 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.3302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.8372093023256"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.0558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.0511627906977"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.7488372093023"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.7488372093023"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.24651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="13" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="N2" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="16" t="s">
+      <c r="N2" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>65</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="15" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="11" t="n">
-        <v>65</v>
-      </c>
-      <c r="N3" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="15" t="n">
+      <c r="N4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="0" t="s">
@@ -2270,35 +2236,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="N5" s="15" t="n">
+      <c r="N5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R5" s="0" t="s">
@@ -2308,35 +2274,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="N6" s="15" t="n">
+      <c r="N6" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="0" t="s">
@@ -2346,35 +2312,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="N7" s="15" t="n">
+      <c r="N7" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R7" s="0" t="s">
@@ -2384,35 +2350,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="N8" s="15" t="n">
+      <c r="N8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R8" s="0" t="s">
@@ -2447,69 +2413,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.72093023255814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.24651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>131</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="13"/>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
@@ -2536,712 +2501,710 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.3627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.0558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="12" width="181.148837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.9302325581395"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="103.618604651163"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.7767441860465"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="186.683720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="78.1441860465116"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="106.693023255814"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="34.4558139534884"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="13" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>139</v>
+      <c r="F3" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>137</v>
+      <c r="N3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>141</v>
+      <c r="F4" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>137</v>
+      <c r="N4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>143</v>
+      <c r="F5" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>137</v>
+      <c r="N5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>145</v>
+      <c r="F6" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>137</v>
+      <c r="N6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>147</v>
+      <c r="F7" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>137</v>
+      <c r="N7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="30" t="s">
+      <c r="B8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="C8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="21" t="s">
         <v>151</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="T8" s="11"/>
+      <c r="N8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>137</v>
+      <c r="N9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>156</v>
+      <c r="F10" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>137</v>
+      <c r="N10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="11" t="s">
         <v>158</v>
       </c>
+      <c r="C11" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="D11" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="20" t="s">
         <v>53</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="17" t="s">
+      <c r="N11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>114</v>
+      <c r="I12" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="11" t="n">
+        <v>165</v>
+      </c>
+      <c r="L12" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="17" t="s">
+      <c r="N12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="20" t="s">
         <v>53</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" s="17" t="s">
+      <c r="N13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="20" t="s">
         <v>53</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" s="17" t="s">
+      <c r="N14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="20" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="17" t="s">
+      <c r="N15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>114</v>
+      <c r="I16" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" s="11" t="n">
+        <v>171</v>
+      </c>
+      <c r="L16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>160</v>
+      <c r="N16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
